--- a/Manual test case/Manual_Testcases_sample_16Sep2021.xlsx
+++ b/Manual test case/Manual_Testcases_sample_16Sep2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raman\Desktop\priya testing files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raman\Documents\GitHub\test-case\Manual test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C66ED54-13CF-43B0-B2AC-CE0598430305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C0952-877E-45F4-ADAC-C40F50954499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE8ED7AD-2A08-460C-9D89-4320ADD401A3}"/>
+    <workbookView xWindow="1095" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{FE8ED7AD-2A08-460C-9D89-4320ADD401A3}"/>
   </bookViews>
   <sheets>
     <sheet name="priya" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>Test data</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>check application url is opening  or not</t>
+  </si>
+  <si>
+    <t>click on start button</t>
   </si>
 </sst>
 </file>
@@ -371,11 +374,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D46CEF-F139-4F57-AA3A-145DB3D7D9C4}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,15 +713,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1185,7 +1188,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -1406,7 +1409,7 @@
       <c r="C96" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F96" s="10" t="s">
@@ -1417,6 +1420,14 @@
       </c>
       <c r="H96" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
